--- a/Doc/데이터Xml_170601_dmgdensity변경.xlsx
+++ b/Doc/데이터Xml_170601_dmgdensity변경.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Consumable" sheetId="7" r:id="rId1"/>
-    <sheet name="Research" sheetId="5" r:id="rId2"/>
-    <sheet name="Elemental" sheetId="3" r:id="rId3"/>
-    <sheet name="장비아이템" sheetId="8" r:id="rId4"/>
-    <sheet name="장비스킬" sheetId="9" r:id="rId5"/>
+    <sheet name="맵데이터" sheetId="10" r:id="rId1"/>
+    <sheet name="Consumable" sheetId="7" r:id="rId2"/>
+    <sheet name="Research" sheetId="5" r:id="rId3"/>
+    <sheet name="Elemental" sheetId="3" r:id="rId4"/>
+    <sheet name="장비아이템" sheetId="8" r:id="rId5"/>
+    <sheet name="장비스킬" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="651">
   <si>
     <t>hero</t>
   </si>
@@ -2432,6 +2433,10 @@
   </si>
   <si>
     <t>ingame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4869,6 +4874,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6517,7 +6543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q115"/>
   <sheetViews>
@@ -10897,7 +10923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q35"/>
   <sheetViews>
@@ -11633,7 +11659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P61"/>
   <sheetViews>
@@ -13409,11 +13435,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
